--- a/stages/stage_editor.xlsx
+++ b/stages/stage_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Python\PyKanoid\stages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108FF6F5-4C3F-4998-92AC-FE3671D7B01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B02D6-48E2-433D-B1DF-B90267E9A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="7875" windowWidth="38700" windowHeight="15195" xr2:uid="{B6065C3E-5891-4ACC-B5E0-89174864E3F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{B6065C3E-5891-4ACC-B5E0-89174864E3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_set" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>STD3</t>
+  </si>
+  <si>
+    <t>STD4</t>
+  </si>
+  <si>
+    <t>STD5</t>
   </si>
 </sst>
 </file>
@@ -97,16 +103,30 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+  <dxfs count="149">
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -136,6 +156,68 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -181,18 +263,3021 @@
           <color rgb="FFAE2334"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF831C5D"/>
+      <color rgb="FFC32454"/>
+      <color rgb="FFF79617"/>
+      <color rgb="FFF9C22B"/>
       <color rgb="FF484A77"/>
       <color rgb="FF4D65B4"/>
       <color rgb="FF165A4C"/>
       <color rgb="FF239063"/>
       <color rgb="FFAE2334"/>
       <color rgb="FFE83B3B"/>
-      <color rgb="FF9C0006"/>
     </mruColors>
   </colors>
   <extLst>
@@ -503,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74BA92-95F2-4E02-829B-287F5397CE9F}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="V16" sqref="U16:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -693,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>2</v>
@@ -731,10 +3816,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>2</v>
@@ -1720,19 +4805,1969 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T211" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T232" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T253" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T274" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T295" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A63:XFD1048576 X45:XFD62 A45:F62 J45:P62 R45:V62 A1:XFD44">
+    <cfRule type="cellIs" dxfId="5" priority="153" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:G62">
+    <cfRule type="cellIs" dxfId="148" priority="142" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="143" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="144" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="145" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q45:Q62">
+    <cfRule type="cellIs" dxfId="144" priority="138" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="139" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="140" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="141" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="cellIs" dxfId="140" priority="134" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="135" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="136" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="137" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="cellIs" dxfId="136" priority="130" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="131" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="133" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="cellIs" dxfId="132" priority="126" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="127" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="129" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="cellIs" dxfId="128" priority="122" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="123" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="125" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="cellIs" dxfId="124" priority="118" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="119" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="120" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="121" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="cellIs" dxfId="120" priority="114" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="cellIs" dxfId="116" priority="110" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="111" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="cellIs" dxfId="112" priority="106" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="107" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="108" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="109" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="103" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="104" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="cellIs" dxfId="104" priority="98" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="99" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="100" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:I50">
+    <cfRule type="cellIs" dxfId="100" priority="94" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="95" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="96" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="97" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="92" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="92" priority="86" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="87" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="88" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="88" priority="82" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="83" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="84" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H56">
+    <cfRule type="cellIs" dxfId="80" priority="74" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="76" priority="70" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="71" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="72" priority="66" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="61" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="60" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="150" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="152" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="154" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:A62">
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="cellIs" dxfId="60" priority="52" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="45" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G62">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:I51">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:I62">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H56">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q45:Q62">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R45:R62">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S46">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S61">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T47:T60">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stages/stage_editor.xlsx
+++ b/stages/stage_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Python\PyKanoid\stages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B02D6-48E2-433D-B1DF-B90267E9A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB9F9FE-B22F-46BC-AD6F-D0CF7E408265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{B6065C3E-5891-4ACC-B5E0-89174864E3F0}"/>
+    <workbookView xWindow="3165" yWindow="5805" windowWidth="38700" windowHeight="15195" xr2:uid="{B6065C3E-5891-4ACC-B5E0-89174864E3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_set" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -103,7 +103,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="149">
+  <dxfs count="413">
     <dxf>
       <font>
         <color rgb="FFAE2334"/>
@@ -166,6 +166,32 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF831C5D"/>
       </font>
       <fill>
@@ -192,6 +218,90 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFF79617"/>
       </font>
       <fill>
@@ -218,6 +328,32 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -266,6 +402,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -290,6 +514,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -326,6 +574,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -350,6 +674,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -374,6 +786,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -410,6 +846,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -434,6 +946,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -458,6 +1058,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -494,6 +1118,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -518,6 +1218,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -542,6 +1330,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -578,6 +1390,58 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -602,6 +1466,118 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -626,6 +1602,118 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -650,6 +1738,118 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -674,6 +1874,118 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -698,6 +2010,118 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -722,6 +2146,118 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -770,6 +2306,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -794,6 +2418,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -830,6 +2478,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -854,6 +2578,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -878,6 +2690,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -914,6 +2750,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -938,6 +2850,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -962,6 +2962,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -998,6 +3022,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1022,6 +3122,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1046,6 +3234,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1082,6 +3294,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1106,6 +3394,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1130,6 +3506,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1166,6 +3566,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1190,6 +3666,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1214,6 +3778,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1250,6 +3838,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1274,6 +3938,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1298,6 +4050,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1334,6 +4110,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1358,6 +4210,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1382,6 +4322,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1418,6 +4382,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1442,6 +4482,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1466,6 +4594,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1502,6 +4654,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1526,6 +4754,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1550,6 +4866,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1586,6 +4926,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1610,6 +5026,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1634,6 +5138,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1670,6 +5198,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1694,6 +5298,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1718,6 +5410,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1754,6 +5470,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1778,6 +5570,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1802,6 +5682,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1838,6 +5742,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -1862,6 +5842,94 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -1886,6 +5954,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF484A77"/>
       </font>
       <fill>
@@ -1922,6 +6014,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -2258,6 +6426,174 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFAE2334"/>
       </font>
       <fill>
@@ -3038,6 +7374,118 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF79617"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C22B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF79617"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF79617"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF79617"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF79617"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF831C5D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC32454"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF831C5D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF831C5D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF831C5D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF831C5D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF165A4C"/>
       </font>
       <fill>
@@ -3263,6 +7711,1542 @@
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE2334"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE83B3B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFAE2334"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAE2334"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAE2334"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAE2334"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF484A77"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4D65B4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF484A77"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF484A77"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF484A77"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF484A77"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF165A4C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF239063"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF165A4C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF165A4C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF165A4C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF165A4C"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3590,8 +9574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74BA92-95F2-4E02-829B-287F5397CE9F}">
   <dimension ref="A1:T295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="U16:V16"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="Y70" sqref="Y70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4010,40 +9994,40 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>1</v>
@@ -4055,10 +10039,10 @@
         <v>3</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4069,40 +10053,40 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>1</v>
@@ -4114,10 +10098,10 @@
         <v>3</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>1</v>
@@ -4128,40 +10112,40 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>1</v>
@@ -4173,10 +10157,10 @@
         <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>1</v>
@@ -4196,40 +10180,40 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>1</v>
@@ -4241,10 +10225,10 @@
         <v>3</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4255,40 +10239,40 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>1</v>
@@ -4300,10 +10284,10 @@
         <v>3</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>1</v>
@@ -4314,40 +10298,40 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>1</v>
@@ -4359,10 +10343,10 @@
         <v>3</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>1</v>
@@ -4382,40 +10366,40 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="M34" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>1</v>
@@ -4427,10 +10411,10 @@
         <v>3</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4441,40 +10425,40 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>1</v>
@@ -4486,10 +10470,10 @@
         <v>3</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>1</v>
@@ -4500,40 +10484,40 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K36" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>1</v>
@@ -4545,10 +10529,10 @@
         <v>3</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>1</v>
@@ -4568,40 +10552,40 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="M39" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>1</v>
@@ -4613,10 +10597,10 @@
         <v>3</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4627,40 +10611,40 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L40" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>1</v>
@@ -4672,10 +10656,10 @@
         <v>3</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>1</v>
@@ -4686,40 +10670,40 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>1</v>
@@ -4731,10 +10715,10 @@
         <v>3</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>1</v>
@@ -5554,6 +11538,706 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="85" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
@@ -6237,536 +12921,1504 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A63:XFD1048576 X45:XFD62 A45:F62 J45:P62 R45:V62 A1:XFD44">
-    <cfRule type="cellIs" dxfId="5" priority="153" operator="equal">
+  <conditionalFormatting sqref="X45:XFD62 A45:F62 J45:P62 R45:V62 A1:XFD44 W68:XFD78 G69:J73 L69:Q73 D75:G80 I75:Q80 D74:Q74 S68:U72 C69:K69 R69 A63:XFD65 A82:XFD1048576 S79:XFD80 C81:XFD81 A66:B81 S66:XFD67 C68:R68">
+    <cfRule type="cellIs" dxfId="412" priority="417" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G62">
-    <cfRule type="cellIs" dxfId="148" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="406" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="407" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="408" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="409" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45:Q62">
-    <cfRule type="cellIs" dxfId="144" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="402" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="403" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="404" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="405" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="140" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="398" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="399" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="400" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="401" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="136" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="394" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="395" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="396" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="397" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="132" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="390" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="391" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="392" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="393" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="128" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="386" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="387" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="388" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="389" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="124" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="382" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="383" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="384" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="385" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="120" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="378" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="379" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="380" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="381" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="116" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="374" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="375" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="376" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="377" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="112" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="370" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="371" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="372" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="373" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="366" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="367" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="368" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="369" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="104" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="362" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="363" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="364" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="365" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I50">
-    <cfRule type="cellIs" dxfId="100" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="358" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="359" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="360" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="361" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="354" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="355" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="356" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="357" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="92" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="350" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="351" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="352" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="353" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="88" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="346" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="347" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="348" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="349" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="342" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="343" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="344" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="345" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H56">
-    <cfRule type="cellIs" dxfId="80" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="338" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="339" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="340" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="341" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="76" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="334" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="335" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="336" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="337" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="72" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="330" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="331" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="332" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="333" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="326" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="327" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="328" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="329" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="61" operator="equal">
+  <conditionalFormatting sqref="W68:XFD78 G69:J73 L69:Q73 D75:G80 I75:Q80 D74:Q74 S68:U72 C69:K69 R69 A1:XFD65 A82:XFD1048576 S79:XFD80 C81:XFD81 A66:B81 S66:XFD67 C68:R68">
+    <cfRule type="cellIs" dxfId="327" priority="324" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="325" operator="equal">
       <formula>"STD4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="60" operator="equal">
-      <formula>"STD5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="414" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="416" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="418" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A62">
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="320" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="321" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="322" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="323" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="60" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="316" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="317" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="318" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="319" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="312" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="313" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="314" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="315" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="308" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="309" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="310" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="311" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="304" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="305" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="306" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="307" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="300" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="301" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="302" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="303" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="296" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="297" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="298" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="299" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="292" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="293" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="294" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="295" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="288" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="289" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="290" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="291" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="287" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="286" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G62">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="285" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:I51">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="284" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I62">
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="283" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H56">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="282" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45:Q62">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="281" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45:R62">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="277" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="278" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="279" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="280" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="273" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="274" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="275" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="276" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S61">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="269" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="270" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="271" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="272" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T47:T60">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="265" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="266" operator="equal">
       <formula>"STD3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="267" operator="equal">
       <formula>"STD2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="268" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="cellIs" dxfId="263" priority="263" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="cellIs" dxfId="262" priority="259" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="260" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="261" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="262" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="264" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="cellIs" dxfId="257" priority="257" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="cellIs" dxfId="256" priority="253" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="254" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="255" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="256" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="258" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73">
+    <cfRule type="cellIs" dxfId="251" priority="251" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73">
+    <cfRule type="cellIs" dxfId="250" priority="247" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="248" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="249" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="250" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="252" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="cellIs" dxfId="245" priority="245" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="cellIs" dxfId="244" priority="241" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="242" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="243" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="244" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="246" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="cellIs" dxfId="239" priority="239" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="cellIs" dxfId="238" priority="235" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="236" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="237" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="238" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="240" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="233" priority="233" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="232" priority="229" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="230" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="231" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="232" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="234" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="227" priority="227" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="226" priority="223" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="224" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="225" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="226" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="228" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="221" priority="221" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="220" priority="217" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="218" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="219" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="220" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="222" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="215" priority="215" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="214" priority="211" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="212" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="213" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="214" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="216" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="cellIs" dxfId="209" priority="209" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="cellIs" dxfId="208" priority="205" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="206" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="207" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="208" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="210" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71">
+    <cfRule type="cellIs" dxfId="203" priority="203" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71">
+    <cfRule type="cellIs" dxfId="202" priority="199" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="200" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="201" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="202" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="204" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="197" priority="197" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="196" priority="193" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="194" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="195" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="196" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="198" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="191" priority="191" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="190" priority="187" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="188" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="190" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="192" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="185" priority="185" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="184" priority="181" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="182" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="184" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="186" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="179" priority="179" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="178" priority="175" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="176" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="177" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="178" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="180" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="cellIs" dxfId="173" priority="173" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="cellIs" dxfId="172" priority="169" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="170" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="171" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="172" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="174" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="167" priority="167" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="166" priority="163" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="164" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="165" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="166" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="168" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="161" priority="161" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="160" priority="157" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="158" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="159" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="160" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="162" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="155" priority="155" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="154" priority="151" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="152" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="153" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="154" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="156" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="149" priority="149" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="148" priority="145" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="146" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="147" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="148" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="150" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="143" priority="143" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="142" priority="139" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="140" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="141" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="142" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="144" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="137" priority="137" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="136" priority="133" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="134" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="135" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="136" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="138" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="cellIs" dxfId="131" priority="131" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="cellIs" dxfId="130" priority="127" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="128" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="129" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="130" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="132" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="cellIs" dxfId="125" priority="125" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="cellIs" dxfId="124" priority="121" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="122" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="123" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="124" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="126" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="cellIs" dxfId="118" priority="115" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="116" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="118" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="cellIs" dxfId="112" priority="109" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="114" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="cellIs" dxfId="107" priority="107" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="cellIs" dxfId="106" priority="103" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="104" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="106" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="cellIs" dxfId="100" priority="97" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="92" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="94" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="96" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="86" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="88" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="90" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="80" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="82" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="74" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="68" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R80">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R80">
+    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R79">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R79">
+    <cfRule type="cellIs" dxfId="58" priority="55" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R78">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R78">
+    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R77">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R77">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R76">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R76">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R75">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R75">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R74">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R74">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R73">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R73">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R72">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R72">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R71">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R71">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"STD1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R70">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"STD2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R70">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"STD5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"STD4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"STD3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"STD1"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/stages/stage_editor.xlsx
+++ b/stages/stage_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Python\PyKanoid\stages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB9F9FE-B22F-46BC-AD6F-D0CF7E408265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D528ADF-F49C-4F65-A0C8-066E16F5BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="5805" windowWidth="38700" windowHeight="15195" xr2:uid="{B6065C3E-5891-4ACC-B5E0-89174864E3F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{B6065C3E-5891-4ACC-B5E0-89174864E3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_set" sheetId="1" r:id="rId1"/>
@@ -9575,7 +9575,7 @@
   <dimension ref="A1:T295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Y70" sqref="Y70"/>
+      <selection activeCell="AA85" sqref="AA85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
